--- a/Bug_report_Foodpanda/FoodPanda Bug_Report .xlsx
+++ b/Bug_report_Foodpanda/FoodPanda Bug_Report .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>BUG REPORT-FoodPanda</t>
   </si>
@@ -34,7 +34,7 @@
     <t>ASSIGNED TO</t>
   </si>
   <si>
-    <t>Vut</t>
+    <t>Binu</t>
   </si>
   <si>
     <t>DEV Team</t>
@@ -83,7 +83,7 @@
 BUG_FP_login_01</t>
   </si>
   <si>
-    <t xml:space="preserve">The cursor should not focus on the email field by default  </t>
+    <t xml:space="preserve">The cursor does not appear in the email field by default  </t>
   </si>
   <si>
     <r>
@@ -130,7 +130,7 @@
     <t>BUG_FP_NAVBAR_02</t>
   </si>
   <si>
-    <t>A alert massage is displaying when clicking the cart icon</t>
+    <t>A  relevent page does not display when clicking the cart icon</t>
   </si>
   <si>
     <t>1.click on the "cart icon" in the navbar</t>
@@ -154,7 +154,7 @@
     <t>BUG_FP_Header_sec_03</t>
   </si>
   <si>
-    <t>When click "Locate Me " button it Suggests Another  Location automatically</t>
+    <t>When click "Locate Me " button it doen't  Suggest  me my  Location</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -180,7 +180,7 @@
     <t>BUG_FP_Header_sec_04</t>
   </si>
   <si>
-    <t>When click "Locate Me " button it Suggests nearest  Location automatically(another browser)</t>
+    <t>When click "Locate Me " button it Suggests nearest  Location except my location (Edge browser)</t>
   </si>
   <si>
     <t xml:space="preserve">This system should suggest a location automatically based on the user's current GPS Coordinates. </t>
@@ -195,7 +195,7 @@
     <t>BUG_FP_Header_sec_5</t>
   </si>
   <si>
-    <t xml:space="preserve"> automatically selects the nearest location without notifying the user.</t>
+    <t xml:space="preserve"> Automatically selects the nearest location without notifying the user.</t>
   </si>
   <si>
     <t xml:space="preserve">1. leave the location input field empty
@@ -235,7 +235,7 @@
     <t>BUG_DB_Pandamart_pg_7</t>
   </si>
   <si>
-    <t xml:space="preserve">when selecting another language its change just cart section </t>
+    <t xml:space="preserve">when selecting English to Bangla, it affects only the cart section. But it doesn't affect the whole page  </t>
   </si>
   <si>
     <t xml:space="preserve">1. click the promotional banner 
@@ -280,11 +280,9 @@
     <t>instagram login button is not working</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the FoodPanda website 
+    <t>1. Open the FoodPanda website 
 2. Scroll to the footer 
-3. Click on the facebook icon 
-4.enter invalid email and valid password 
-5. Click the login button </t>
+3. Observe the Instagram icon</t>
   </si>
   <si>
     <t xml:space="preserve">The user should be logged in </t>
@@ -294,16 +292,6 @@
   </si>
   <si>
     <t>https://prnt.sc/kD01TyGg9ZRx</t>
-  </si>
-  <si>
-    <t>BUG_Footer_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the FoodPanda website 
-2. Scroll to the footer 
-3. Click on the instagram icon 
-4.enter  valid email and valid password 
-5. Click the login button </t>
   </si>
 </sst>
 </file>
@@ -495,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -521,7 +509,7 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -607,6 +595,9 @@
     <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -824,6 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1200,7 +1192,7 @@
       <c r="B12" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="40" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="34" t="s">
@@ -1227,36 +1219,16 @@
       <c r="K12" s="38"/>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="25">
-        <v>45686.0</v>
-      </c>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1293,8 +1265,10 @@
     <hyperlink r:id="rId8" ref="F10"/>
     <hyperlink r:id="rId9" ref="F11"/>
     <hyperlink r:id="rId10" ref="F12"/>
-    <hyperlink r:id="rId11" ref="F13"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>